--- a/output/fisc-compañia de maria.xlsx
+++ b/output/fisc-compañia de maria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -567,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,7 +585,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,10 +694,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -781,15 +799,24 @@
         <v>0.08709301995416767</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>23421</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -888,15 +915,24 @@
         <v>0.1633920749325483</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -995,15 +1031,24 @@
         <v>0.1633920749325483</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>794969</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1102,15 +1147,24 @@
         <v>0.1633920749325483</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>9700</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1209,15 +1263,24 @@
         <v>0.1633920749325483</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>157759</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1316,15 +1379,24 @@
         <v>0.1633920749325483</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>50282</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1423,15 +1495,24 @@
         <v>0.1633920749325483</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>215648</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1530,15 +1611,24 @@
         <v>0.1633920749325483</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>280237</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1637,15 +1727,24 @@
         <v>0.1633920749325483</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>10625</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1744,15 +1843,24 @@
         <v>0.1633920749325483</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>777027</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1851,15 +1959,24 @@
         <v>0.09214776079649983</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>524228</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1958,15 +2075,24 @@
         <v>0.09214776079649983</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>95651</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2065,15 +2191,24 @@
         <v>0.09214776079649983</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>3600</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2172,15 +2307,24 @@
         <v>0.09214776079649983</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2279,15 +2423,24 @@
         <v>0.09214776079649983</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>134353</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2386,15 +2539,24 @@
         <v>0.09214776079649983</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>59455</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2493,15 +2655,24 @@
         <v>0.09214776079649983</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>592125</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2600,15 +2771,24 @@
         <v>0.09214776079649983</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>25000</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2707,15 +2887,24 @@
         <v>0.09214776079649983</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>157183</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2814,15 +3003,24 @@
         <v>0.09214776079649983</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>10643</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2921,15 +3119,24 @@
         <v>0.09214776079649983</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>1254144</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3028,15 +3235,24 @@
         <v>0.09214776079649983</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>671</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3135,15 +3351,24 @@
         <v>0.3273104455222868</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>55788.01</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3242,15 +3467,24 @@
         <v>0.3273104455222868</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>9119.75</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3349,15 +3583,24 @@
         <v>0.3273104455222868</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>25693.5</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3456,15 +3699,24 @@
         <v>0.3273104455222868</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>125819.16</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3563,15 +3815,24 @@
         <v>0.5012871489463955</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>55788.01</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3670,15 +3931,24 @@
         <v>0.5012871489463955</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>9119.75</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3777,15 +4047,24 @@
         <v>0.5012871489463955</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>25693.5</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3884,15 +4163,24 @@
         <v>0.5012871489463955</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>125819.16</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3991,15 +4279,24 @@
         <v>0.9112213425437165</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>24529</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4098,15 +4395,24 @@
         <v>0.9112213425437165</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>5697</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4205,15 +4511,24 @@
         <v>0.9112213425437165</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>186511</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4312,15 +4627,24 @@
         <v>0.9112213425437165</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>9898</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4419,9 +4743,18 @@
         <v>0.9112213425437165</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>4530</v>
       </c>
     </row>

--- a/output/fisc-compañia de maria.xlsx
+++ b/output/fisc-compañia de maria.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5520</v>
+        <v>5596.139681459835</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3450</v>
+        <v>3972.630273980753</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8320</v>
+        <v>10594.98659239237</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7800</v>
+        <v>9502.243585046588</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2260</v>
+        <v>2100.656463590606</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4280</v>
+        <v>3928.450391496945</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>720</v>
+        <v>743.403784726004</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2120</v>
+        <v>2812.435974421079</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9270</v>
+        <v>10385.96443195552</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4070</v>
+        <v>4355.934938677345</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>770</v>
+        <v>777.227218443918</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5930</v>
+        <v>5885.254624554112</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>10710</v>
+        <v>10883.31535948899</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>11080</v>
+        <v>11627.81065059172</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>4410</v>
+        <v>4209.874800894355</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2390</v>
+        <v>2860.874335573629</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>7290</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>2490</v>
+        <v>2887.250212489506</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>7910</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>2590</v>
+        <v>3008.669179463094</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>3450</v>
+        <v>2612.856880840196</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>2410</v>
+        <v>3012.536723186288</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>3510</v>
+        <v>2735.187532014817</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7012,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>12220</v>
+        <v>10239.48134799327</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>1820</v>
+        <v>2854.757682901436</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D58">
         <v>0</v>

--- a/output/fisc-compañia de maria.xlsx
+++ b/output/fisc-compañia de maria.xlsx
@@ -3230,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>345.2661148508273</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>250221.23</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>404413.435</v>
+        <v>1254144</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>40123.87</v>
+        <v>134353</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>21598.5</v>
+        <v>157183</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>114305.295</v>
+        <v>592125</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>3911.735</v>
+        <v>10643</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>55788.01</v>
+        <v>250221.23</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>9119.75</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>25693.5</v>
+        <v>40123.87</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>125819.16</v>
+        <v>404413.435</v>
       </c>
       <c r="F53">
         <v>0</v>
